--- a/homework/homework0801/cases.xlsx
+++ b/homework/homework0801/cases.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -403,10 +404,10 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col customWidth="1" max="3" min="3" width="16.1640625"/>
     <col customWidth="1" max="4" min="4" style="1" width="28.33203125"/>
@@ -749,4 +750,243 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="14.58203125"/>
+    <col customWidth="1" max="3" min="3" width="18.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="27.33203125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="24.08203125"/>
+    <col customWidth="1" max="6" min="6" width="9.08203125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>结果</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>帐号和密码均为空</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>{"username": None, "password": None}</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>已通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>帐号为空</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>{"username": None, "password": "123456"}</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>已通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>{"username": "python31", "password": None}</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>已通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>密码不正确</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>{"username": "python31", "password": "123456"}</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "账号或密码不正确"}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>已通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>帐号不存在</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>{"username": "python32", "password": "123456"}</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "账号或密码不正确"}</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>已通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>{"username": "python31", "password": "lemonban"}</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "登录成功"}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>已通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>